--- a/biology/Médecine/1170_en_santé_et_médecine/1170_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1170_en_santé_et_médecine/1170_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1170_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1170_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1170 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1170_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1170_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Décembre : à Venise, en Italie, construction et dotation par Cleto et Bonavere Grausoni de l'hôpital S. Maria dei Crociferi[1].
-Henri de France, archevêque de Reims, fonde une maladrerie à Fismes, en Champagne[2].
-Installation d'une léproserie à Cusset, en Auvergne[3].
-Fondation d'une léproserie à Hénin, en Artois[4].
-Entre 1170 et 1180 : la léproserie Saint-Nicolas, dont les revenus serviront à fonder l'hospice général d'Évreux, en Normandie, est mentionnée dans l'acte d'une donation faite entre les mains de Gilles du Perche, évêque d'Évreux[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Décembre : à Venise, en Italie, construction et dotation par Cleto et Bonavere Grausoni de l'hôpital S. Maria dei Crociferi.
+Henri de France, archevêque de Reims, fonde une maladrerie à Fismes, en Champagne.
+Installation d'une léproserie à Cusset, en Auvergne.
+Fondation d'une léproserie à Hénin, en Artois.
+Entre 1170 et 1180 : la léproserie Saint-Nicolas, dont les revenus serviront à fonder l'hospice général d'Évreux, en Normandie, est mentionnée dans l'acte d'une donation faite entre les mains de Gilles du Perche, évêque d'Évreux.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1170_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1170_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gérard de Crémone traduit l'Al-Jadri wa al-hasbeh (Traité sur la variole et la rougeole) de Rhazès[6].
-Années 1170 : Guido d'Arezzo le Jeune rédige la Practica chirurgiae (« Pratique de la chirurgie »), compilation des cours de son maître Roger de Salerne (c.1140-c.1195), qui deviendra le très important traité connu sous le titre de Chirurgia magistri Rogerii (« Chirurgie de maître Roger[7],[8]»).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gérard de Crémone traduit l'Al-Jadri wa al-hasbeh (Traité sur la variole et la rougeole) de Rhazès.
+Années 1170 : Guido d'Arezzo le Jeune rédige la Practica chirurgiae (« Pratique de la chirurgie »), compilation des cours de son maître Roger de Salerne (c.1140-c.1195), qui deviendra le très important traité connu sous le titre de Chirurgia magistri Rogerii (« Chirurgie de maître Roger,»).</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1170_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1170_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fl. Aimeri, barbier (« rasiator »), cité dans une charte du chapitre cathédral Saint-Nazaire de Béziers[9].
-Fl. Goïllus ou  Guillelmus ; il enseignerait la médecine à Montpellier[9].
-1151-1170 : fl. Guillaume, médecin et chancelier de Henri Ier, comte palatin de Troyes[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fl. Aimeri, barbier (« rasiator »), cité dans une charte du chapitre cathédral Saint-Nazaire de Béziers.
+Fl. Goïllus ou  Guillelmus ; il enseignerait la médecine à Montpellier.
+1151-1170 : fl. Guillaume, médecin et chancelier de Henri Ier, comte palatin de Troyes.
 </t>
         </is>
       </c>
